--- a/app/提出用_帳票_整形済.xlsx
+++ b/app/提出用_帳票_整形済.xlsx
@@ -1,54 +1,267 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\synth\Desktop\works_env\21.Work_Streamlit\Sanbou_app\app\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1AB3B87-EE46-4CCA-9DEF-6EBAE76E2F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+  <si>
+    <t>業者名</t>
+  </si>
+  <si>
+    <t>明細備考</t>
+  </si>
+  <si>
+    <t>品名</t>
+  </si>
+  <si>
+    <t>丸幸</t>
+  </si>
+  <si>
+    <t>破砕14本</t>
+  </si>
+  <si>
+    <t>廃ﾌﾟﾗｽﾁｯｸ類(S）</t>
+  </si>
+  <si>
+    <t>丸源起業</t>
+  </si>
+  <si>
+    <t>A:24本</t>
+  </si>
+  <si>
+    <t>混合廃棄物(A)</t>
+  </si>
+  <si>
+    <t>B20本</t>
+  </si>
+  <si>
+    <t>混合廃棄物(B)</t>
+  </si>
+  <si>
+    <t>北陸環境ｻｰﾋﾞｽ</t>
+  </si>
+  <si>
+    <t>24本</t>
+  </si>
+  <si>
+    <t>混合廃棄物</t>
+  </si>
+  <si>
+    <t>新潟環境開発</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>廃ﾌﾟﾗｽﾁｯｸ類(未破砕)</t>
+  </si>
+  <si>
+    <t>杉田建材</t>
+  </si>
+  <si>
+    <t>焼却16本</t>
+  </si>
+  <si>
+    <t>廃ﾌﾟﾗｽﾁｯｸ類</t>
+  </si>
+  <si>
+    <t>松岡環境開発</t>
+  </si>
+  <si>
+    <t>管理型34本</t>
+  </si>
+  <si>
+    <t>ｱｸﾄﾘｰ</t>
+  </si>
+  <si>
+    <t>焼却21本</t>
+  </si>
+  <si>
+    <t>混合廃棄物(焼却物)</t>
+  </si>
+  <si>
+    <t>単価</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>合計</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2025年5月7日（水）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日付：</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>作成者：</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ブロック単価表</t>
+    <rPh sb="4" eb="7">
+      <t>タンカヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>金額</t>
+    <rPh sb="0" eb="2">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <rPh sb="0" eb="2">
+      <t>スウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>平均単価</t>
+    <rPh sb="0" eb="4">
+      <t>ヘイキンタンカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
-      <sz val="12"/>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -72,103 +285,373 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
+  <cellXfs count="34">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="桁区切り 2" xfId="2" xr:uid="{5219AD92-793A-45AD-ACD0-27BACE715077}"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{74AEA230-9D79-4DF2-932D-63AE985C4CB1}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -456,276 +939,282 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="8" customWidth="1" min="4" max="4"/>
-    <col width="16" customWidth="1" min="5" max="5"/>
-    <col width="8" customWidth="1" min="6" max="6"/>
+    <col min="1" max="1" width="25.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.375" style="1" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="26.625" style="1" customWidth="1"/>
+    <col min="4" max="6" width="11" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>📅 処理日：2025年5月7日（水）</t>
-        </is>
-      </c>
-    </row>
-    <row r="2"/>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>業者名</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>正味重量</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>総額</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>明細備考</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="inlineStr">
-        <is>
-          <t>品名</t>
-        </is>
-      </c>
-      <c r="F3" s="3" t="inlineStr">
-        <is>
-          <t>ブロック単価</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>丸幸</t>
-        </is>
-      </c>
-      <c r="B4" s="4" t="n">
+    <row r="1" spans="1:7" ht="24" customHeight="1">
+      <c r="A1" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" ht="6" customHeight="1">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="D3" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="D4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="7.5" customHeight="1" thickBot="1">
+      <c r="D5" s="2"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A6" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="19.5" customHeight="1" thickTop="1">
+      <c r="A7" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="14">
         <v>7910</v>
       </c>
-      <c r="C4" s="4" t="n">
+      <c r="E7" s="14">
         <v>158250</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>破砕14本</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>廃ﾌﾟﾗｽﾁｯｸ類(S）</t>
-        </is>
-      </c>
-      <c r="F4" s="5" t="n">
-        <v>20.01</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>丸源起業</t>
-        </is>
-      </c>
-      <c r="B5" s="4" t="n">
+      <c r="F7" s="15">
+        <v>20.010000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="19.5" customHeight="1">
+      <c r="A8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="6">
         <v>12510</v>
       </c>
-      <c r="C5" s="4" t="n">
+      <c r="E8" s="6">
         <v>329530</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>A:24本</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>混合廃棄物(A)</t>
-        </is>
-      </c>
-      <c r="F5" s="5" t="n">
+      <c r="F8" s="10">
         <v>26.34</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>丸源起業</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="n">
+    <row r="9" spans="1:7" ht="19.5" customHeight="1">
+      <c r="A9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="6">
         <v>9600</v>
       </c>
-      <c r="C6" s="4" t="n">
+      <c r="E9" s="6">
         <v>323000</v>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>B20本</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>混合廃棄物(B)</t>
-        </is>
-      </c>
-      <c r="F6" s="5" t="n">
+      <c r="F9" s="10">
         <v>33.65</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>北陸環境ｻｰﾋﾞｽ</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="n">
+    <row r="10" spans="1:7" ht="19.5" customHeight="1">
+      <c r="A10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="6">
         <v>11780</v>
       </c>
-      <c r="C7" s="4" t="n">
+      <c r="E10" s="6">
         <v>419500</v>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>24本</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>混合廃棄物</t>
-        </is>
-      </c>
-      <c r="F7" s="5" t="n">
+      <c r="F10" s="10">
         <v>35.61</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>新潟環境開発</t>
-        </is>
-      </c>
-      <c r="B8" s="4" t="n">
+    <row r="11" spans="1:7" ht="19.5" customHeight="1">
+      <c r="A11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="6">
         <v>12870</v>
       </c>
-      <c r="C8" s="4" t="n">
+      <c r="E11" s="6">
         <v>270270</v>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>廃ﾌﾟﾗｽﾁｯｸ類(未破砕)</t>
-        </is>
-      </c>
-      <c r="F8" s="4" t="n">
+      <c r="F11" s="11">
         <v>21</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>杉田建材</t>
-        </is>
-      </c>
-      <c r="B9" s="4" t="n">
+    <row r="12" spans="1:7" ht="19.5" customHeight="1">
+      <c r="A12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="6">
         <v>7190</v>
       </c>
-      <c r="C9" s="4" t="n">
+      <c r="E12" s="6">
         <v>270080</v>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>焼却16本</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>廃ﾌﾟﾗｽﾁｯｸ類</t>
-        </is>
-      </c>
-      <c r="F9" s="5" t="n">
+      <c r="F12" s="10">
         <v>37.56</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>松岡環境開発</t>
-        </is>
-      </c>
-      <c r="B10" s="4" t="n">
+    <row r="13" spans="1:7" ht="19.5" customHeight="1">
+      <c r="A13" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="6">
         <v>17950</v>
       </c>
-      <c r="C10" s="4" t="n">
+      <c r="E13" s="6">
         <v>774550</v>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>管理型34本</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>混合廃棄物</t>
-        </is>
-      </c>
-      <c r="F10" s="5" t="n">
+      <c r="F13" s="10">
         <v>43.15</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>ｱｸﾄﾘｰ</t>
-        </is>
-      </c>
-      <c r="B11" s="4" t="n">
+    <row r="14" spans="1:7" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A14" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="24">
         <v>12580</v>
       </c>
-      <c r="C11" s="4" t="n">
+      <c r="E14" s="24">
         <v>417400</v>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>焼却21本</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>混合廃棄物(焼却物)</t>
-        </is>
-      </c>
-      <c r="F11" s="5" t="n">
+      <c r="F14" s="25">
         <v>33.18</v>
       </c>
     </row>
+    <row r="15" spans="1:7" ht="5.25" customHeight="1" thickBot="1">
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="28"/>
+    </row>
+    <row r="16" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
+      <c r="D16" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="32"/>
+      <c r="F16" s="31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" ht="18.75" customHeight="1" thickBot="1">
+      <c r="D17" s="29">
+        <f>SUM(D7:D14)</f>
+        <v>92390</v>
+      </c>
+      <c r="E17" s="26">
+        <f>SUM(E7:E14)</f>
+        <v>2962580</v>
+      </c>
+      <c r="F17" s="27">
+        <f>E17/D17</f>
+        <v>32.066024461521806</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6">
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="D16:E16"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>